--- a/dat/twospecies/twospecies_bands_analysis.xlsx
+++ b/dat/twospecies/twospecies_bands_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="twospecies_bands" sheetId="1" r:id="rId1"/>
@@ -6715,8 +6715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7098,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9426,40 +9426,40 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>300</v>
-      </c>
-      <c r="D63">
-        <v>30</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5">
+        <v>300</v>
+      </c>
+      <c r="D63" s="5">
+        <v>30</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63">
-        <v>1E-4</v>
-      </c>
-      <c r="I63">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>200</v>
-      </c>
-      <c r="L63">
+      <c r="G63" s="5">
+        <v>10</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>200</v>
+      </c>
+      <c r="L63" s="5">
         <v>0.08</v>
       </c>
     </row>
